--- a/Documents/일정산출(WBS).xlsx
+++ b/Documents/일정산출(WBS).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\종다리\25기_하태민_출판사_일정산출(WBS)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Publisher_Portfolio\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98354E3F-0423-495E-89DC-2DBA0ACF6E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD94B9E-D85E-4C1D-B157-A1E1982112DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,12 +570,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,6 +590,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,15 +928,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="39" customWidth="1"/>
     <col min="4" max="6" width="13.75" style="3" customWidth="1"/>
     <col min="7" max="8" width="6.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="3" customWidth="1"/>
@@ -936,59 +955,59 @@
       <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
     </row>
     <row r="3" spans="2:57">
       <c r="B3" s="30"/>
@@ -1002,77 +1021,77 @@
       <c r="H3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27" t="s">
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27" t="s">
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27" t="s">
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
-      <c r="BD3" s="27"/>
-      <c r="BE3" s="27"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
     </row>
     <row r="4" spans="2:57">
       <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="33" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -1240,7 +1259,7 @@
     </row>
     <row r="5" spans="2:57" ht="17.25" thickBot="1">
       <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -1399,10 +1418,10 @@
       </c>
     </row>
     <row r="6" spans="2:57">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="35" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="15">
@@ -1467,8 +1486,8 @@
       <c r="BE6" s="14"/>
     </row>
     <row r="7" spans="2:57">
-      <c r="B7" s="27"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="6">
@@ -1533,8 +1552,8 @@
       <c r="BE7" s="5"/>
     </row>
     <row r="8" spans="2:57">
-      <c r="B8" s="27"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="6">
@@ -1599,8 +1618,8 @@
       <c r="BE8" s="5"/>
     </row>
     <row r="9" spans="2:57">
-      <c r="B9" s="27"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="6">
@@ -1665,8 +1684,8 @@
       <c r="BE9" s="5"/>
     </row>
     <row r="10" spans="2:57">
-      <c r="B10" s="27"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="36" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6">
@@ -1732,7 +1751,7 @@
     </row>
     <row r="11" spans="2:57" ht="17.25" thickBot="1">
       <c r="B11" s="28"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="17">
@@ -1797,10 +1816,10 @@
       <c r="BE11" s="13"/>
     </row>
     <row r="12" spans="2:57">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="14"/>
@@ -1859,8 +1878,8 @@
       <c r="BE12" s="14"/>
     </row>
     <row r="13" spans="2:57">
-      <c r="B13" s="27"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="36" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="5"/>
@@ -1919,8 +1938,8 @@
       <c r="BE13" s="5"/>
     </row>
     <row r="14" spans="2:57">
-      <c r="B14" s="27"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="36" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="5"/>
@@ -1979,8 +1998,8 @@
       <c r="BE14" s="5"/>
     </row>
     <row r="15" spans="2:57">
-      <c r="B15" s="27"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="5"/>
@@ -2039,8 +2058,8 @@
       <c r="BE15" s="5"/>
     </row>
     <row r="16" spans="2:57">
-      <c r="B16" s="27"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="5"/>
@@ -2099,8 +2118,8 @@
       <c r="BE16" s="5"/>
     </row>
     <row r="17" spans="2:57">
-      <c r="B17" s="27"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="36" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="5"/>
@@ -2159,8 +2178,8 @@
       <c r="BE17" s="5"/>
     </row>
     <row r="18" spans="2:57">
-      <c r="B18" s="27"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="5"/>
@@ -2219,8 +2238,8 @@
       <c r="BE18" s="5"/>
     </row>
     <row r="19" spans="2:57">
-      <c r="B19" s="27"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="5"/>
@@ -2279,8 +2298,8 @@
       <c r="BE19" s="5"/>
     </row>
     <row r="20" spans="2:57">
-      <c r="B20" s="27"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="36" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="5"/>
@@ -2339,8 +2358,8 @@
       <c r="BE20" s="5"/>
     </row>
     <row r="21" spans="2:57">
-      <c r="B21" s="27"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="36" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="5"/>
@@ -2399,8 +2418,8 @@
       <c r="BE21" s="5"/>
     </row>
     <row r="22" spans="2:57">
-      <c r="B22" s="27"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="36" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="5"/>
@@ -2459,8 +2478,8 @@
       <c r="BE22" s="5"/>
     </row>
     <row r="23" spans="2:57">
-      <c r="B23" s="27"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="5"/>
@@ -2519,8 +2538,8 @@
       <c r="BE23" s="5"/>
     </row>
     <row r="24" spans="2:57">
-      <c r="B24" s="27"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="36" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="5"/>
@@ -2579,8 +2598,8 @@
       <c r="BE24" s="5"/>
     </row>
     <row r="25" spans="2:57">
-      <c r="B25" s="27"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="36" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="5"/>
@@ -2639,8 +2658,8 @@
       <c r="BE25" s="5"/>
     </row>
     <row r="26" spans="2:57">
-      <c r="B26" s="27"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="36" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="5"/>
@@ -2699,8 +2718,8 @@
       <c r="BE26" s="5"/>
     </row>
     <row r="27" spans="2:57">
-      <c r="B27" s="27"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="36" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="5"/>
@@ -2759,8 +2778,8 @@
       <c r="BE27" s="5"/>
     </row>
     <row r="28" spans="2:57">
-      <c r="B28" s="27"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="36" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="5"/>
@@ -2819,8 +2838,8 @@
       <c r="BE28" s="5"/>
     </row>
     <row r="29" spans="2:57">
-      <c r="B29" s="27"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="5"/>
@@ -2879,8 +2898,8 @@
       <c r="BE29" s="5"/>
     </row>
     <row r="30" spans="2:57">
-      <c r="B30" s="27"/>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="36" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="5"/>
@@ -2940,7 +2959,7 @@
     </row>
     <row r="31" spans="2:57" ht="17.25" thickBot="1">
       <c r="B31" s="28"/>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="37" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="13"/>
@@ -2999,10 +3018,10 @@
       <c r="BE31" s="13"/>
     </row>
     <row r="32" spans="2:57">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="35" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="14"/>
@@ -3061,8 +3080,8 @@
       <c r="BE32" s="14"/>
     </row>
     <row r="33" spans="2:57">
-      <c r="B33" s="27"/>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="5"/>
@@ -3121,8 +3140,8 @@
       <c r="BE33" s="5"/>
     </row>
     <row r="34" spans="2:57">
-      <c r="B34" s="27"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="5"/>
@@ -3181,8 +3200,8 @@
       <c r="BE34" s="5"/>
     </row>
     <row r="35" spans="2:57">
-      <c r="B35" s="27"/>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="5"/>
@@ -3242,7 +3261,7 @@
     </row>
     <row r="36" spans="2:57" ht="17.25" thickBot="1">
       <c r="B36" s="28"/>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="13"/>
@@ -3301,10 +3320,10 @@
       <c r="BE36" s="13"/>
     </row>
     <row r="37" spans="2:57">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="35" t="s">
         <v>62</v>
       </c>
       <c r="D37" s="14"/>
@@ -3363,8 +3382,8 @@
       <c r="BE37" s="14"/>
     </row>
     <row r="38" spans="2:57">
-      <c r="B38" s="27"/>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="36" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="5"/>
@@ -3423,8 +3442,8 @@
       <c r="BE38" s="5"/>
     </row>
     <row r="39" spans="2:57">
-      <c r="B39" s="27"/>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="36" t="s">
         <v>64</v>
       </c>
       <c r="D39" s="5"/>
@@ -3483,8 +3502,8 @@
       <c r="BE39" s="5"/>
     </row>
     <row r="40" spans="2:57">
-      <c r="B40" s="27"/>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="36" t="s">
         <v>65</v>
       </c>
       <c r="D40" s="5"/>
@@ -3544,7 +3563,7 @@
     </row>
     <row r="41" spans="2:57" ht="17.25" thickBot="1">
       <c r="B41" s="28"/>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="37" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="13"/>
@@ -3606,7 +3625,7 @@
       <c r="B42" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="4"/>
@@ -3665,8 +3684,8 @@
       <c r="BE42" s="4"/>
     </row>
     <row r="43" spans="2:57">
-      <c r="B43" s="27"/>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D43" s="5"/>
@@ -3726,11 +3745,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AM2:BE2"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AT3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B43"/>
@@ -3747,6 +3761,11 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="B12:B31"/>
+    <mergeCell ref="AM2:BE2"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AT3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
